--- a/biology/Médecine/Colite/Colite.xlsx
+++ b/biology/Médecine/Colite/Colite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une colite est une inflammation du côlon.
 </t>
@@ -513,15 +525,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Colites infectieuses
-d'origine bactérienne
+          <t>Colites infectieuses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>d'origine bactérienne
 choléra
 colibacilloses
 shigelloses
 colite pseudo-membraneuse à Clostridium difficile
 salmonelloses
 yersinioses
-Maladie de Lyme[1] (Borréliose)
+Maladie de Lyme (Borréliose)
 tuberculose intestinale
 virales
 rotavirus
@@ -557,14 +574,82 @@
 Infections sexuellement transmissibles
 syphilis
 gonorrhée
-lymphogranulome vénérien (maladie de Durand-Nicolas-Favre)
-Colites médicamenteuses
-anti-inflammatoires non stéroïdiens
-antibiotiques (colite des antibiotiques)[2]
+lymphogranulome vénérien (maladie de Durand-Nicolas-Favre)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Colite</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colite</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Colites aiguës</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Colites médicamenteuses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>anti-inflammatoires non stéroïdiens
+antibiotiques (colite des antibiotiques)
 laxatifs stimulants
-neuroleptiques (rare) : surtout les phénothiazines, mais aussi le clozapine, l'olanzapine, la rispéridone[3].
-Colites ischémiques
-Athérosclérose
+neuroleptiques (rare) : surtout les phénothiazines, mais aussi le clozapine, l'olanzapine, la rispéridone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colite</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colite</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Colites aiguës</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Colites ischémiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Athérosclérose
 Vasoconstricteurs :
 AINS
 Cocaïne
@@ -574,34 +659,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Colite</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Colite</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Colites chroniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Maladie inflammatoire chronique de l'intestin (MICI)
-Maladie de Crohn
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maladie inflammatoire chronique de l'intestin (MICI)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maladie de Crohn
 Maladie cœliaque (intolérance du duodénum ⇔ intestin grêle au gluten, souvent conjoints à l'arthrite plus particulièrement ankylosante)
 Rectocolite ulcéro-hémorragique (RCUH)
 Colite indéterminée
